--- a/biology/Zoologie/Entomologia_Carniolica/Entomologia_Carniolica.xlsx
+++ b/biology/Zoologie/Entomologia_Carniolica/Entomologia_Carniolica.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Entomologia Carniolica exhibens insecta Carnioliae indigena et distributa in ordines, genera, species, varietates, ordine Linnaeano[1], en bref Entomologia Carniolica, est un ouvrage de Giovanni Antonio Scopoli publié à Vienne en latin en 1763. Il décrit plus de cent espèces nouvelles du duché de Carniole, alors dans l'Empire austro-hongrois et formant actuellement une partie de la Slovénie. Le titre se traduit : Entomologie carniolique, présentant des insectes indigènes de la Carniole, répartis en ordres, genres, espèces, variétés, selon l'ordre de Linné.
-Carl von Linné avait utilisé la structure des ailes comme base de sa classification. Johan Christian Fabricius s'était servi de la structure des pièces buccales des insectes. Scopoli crée une taxonomie considérant l'insecte dans son entier[2] ; il définit ainsi un système plus proche de la classification phylogénétique actuelle.
+Entomologia Carniolica exhibens insecta Carnioliae indigena et distributa in ordines, genera, species, varietates, ordine Linnaeano, en bref Entomologia Carniolica, est un ouvrage de Giovanni Antonio Scopoli publié à Vienne en latin en 1763. Il décrit plus de cent espèces nouvelles du duché de Carniole, alors dans l'Empire austro-hongrois et formant actuellement une partie de la Slovénie. Le titre se traduit : Entomologie carniolique, présentant des insectes indigènes de la Carniole, répartis en ordres, genres, espèces, variétés, selon l'ordre de Linné.
+Carl von Linné avait utilisé la structure des ailes comme base de sa classification. Johan Christian Fabricius s'était servi de la structure des pièces buccales des insectes. Scopoli crée une taxonomie considérant l'insecte dans son entier ; il définit ainsi un système plus proche de la classification phylogénétique actuelle.
 C'est dans cet ouvrage qu'on trouve — première notable — l'affirmation écrite que l'accouplement d'une reine abeille se fait en dehors de la ruche.
 </t>
         </is>
@@ -514,7 +526,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Entomologia Carniolica contient 1 153 espèces d'arthropodes, toutes appelées alors « insectes ». Scopoli y distingue sept ordres.
 </t>
